--- a/data/customer_feedback.xlsx
+++ b/data/customer_feedback.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utsacloud-my.sharepoint.com/personal/jamie_humphries_utsa_edu/Documents/MS3083/sample_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3932BDB9-82C8-964C-9E1E-8055C00B257E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{3932BDB9-82C8-964C-9E1E-8055C00B257E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E415B5FF-B651-0748-A9AF-7F4DAB7F68CC}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{CE652C5B-7D2E-9E4A-A11A-D9AFFBFF35E2}"/>
+    <workbookView xWindow="5200" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CE652C5B-7D2E-9E4A-A11A-D9AFFBFF35E2}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_feedback" sheetId="1" r:id="rId1"/>
+    <sheet name="ratings" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="25">
   <si>
     <t>FeedbackID</t>
   </si>
@@ -83,6 +84,18 @@
   </si>
   <si>
     <t>Outstanding performance</t>
+  </si>
+  <si>
+    <t>ProductRating</t>
+  </si>
+  <si>
+    <t>ServiceRating</t>
+  </si>
+  <si>
+    <t>OverallSatisfaction</t>
+  </si>
+  <si>
+    <t>RecommendationScore</t>
   </si>
 </sst>
 </file>
@@ -946,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469E1481-24E7-C548-9CA9-1B4FCC09571C}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2670,4 +2683,886 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3092C-56F1-7948-A6AF-5CD6E2CFB98C}">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>